--- a/Data/Raw/WHY_CORRELATIONS/Population status_Regionaldaten_2021_Berlin-Brandenburg (1).xlsx
+++ b/Data/Raw/WHY_CORRELATIONS/Population status_Regionaldaten_2021_Berlin-Brandenburg (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristianvaleria/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristianvaleria/Ironhack/Week_5/Mid_bootcamp_project/Data/Raw/WHY_CORRELATIONS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB7C8D8-551C-5944-9074-C3B5DEB771AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4727D128-26B2-FD45-A570-7E5D82F893F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22900" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1880" windowWidth="22900" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="7" r:id="rId1"/>
@@ -19,21 +19,14 @@
   <definedNames>
     <definedName name="TABLE" localSheetId="0">'1'!$B$4:$E$17</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1" fullPrecision="0"/>
+  <calcPr calcId="191029" fullPrecision="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
-  <si>
-    <t>Insgesamt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Anzahl</t>
-  </si>
-  <si>
-    <t>Veränderung
-zum Vorjahr</t>
   </si>
   <si>
     <t>%</t>
@@ -65,13 +58,7 @@
     <t>Bezirk ¹</t>
   </si>
   <si>
-    <t>Bevölkerungsdichte ²</t>
-  </si>
-  <si>
     <t>Verwaltungsbezirk</t>
-  </si>
-  <si>
-    <t>Einwohner/km²</t>
   </si>
   <si>
     <t>Bevölkerung in Berlin am 31.12.2021</t>
@@ -220,6 +207,12 @@
   </si>
   <si>
     <t>Population density ¹</t>
+  </si>
+  <si>
+    <t>Population/km²</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -233,7 +226,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
     <numFmt numFmtId="168" formatCode="#,##0.0;\–\ #,##0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -419,9 +412,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -432,14 +422,17 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -786,13 +779,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E16" sqref="E5:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="24.6640625" style="6" customWidth="1"/>
@@ -806,44 +802,44 @@
     <col min="10" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1">
-      <c r="B2" s="44" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="42" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="18" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>9</v>
+        <v>55</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="B3" s="44"/>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="42"/>
       <c r="C3" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>3</v>
-      </c>
       <c r="E3" s="22" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="12" customHeight="1">
+    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="23"/>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
@@ -852,12 +848,12 @@
       <c r="H4" s="7"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="12" customHeight="1">
-      <c r="A5" s="42" t="s">
-        <v>46</v>
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="26">
         <v>377735</v>
@@ -876,12 +872,12 @@
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="1:13" ht="12" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>47</v>
+    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="26">
         <v>280671</v>
@@ -900,12 +896,12 @@
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" ht="12" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>48</v>
+    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="26">
         <v>404795</v>
@@ -924,12 +920,12 @@
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" ht="12" customHeight="1">
-      <c r="A8" s="42" t="s">
-        <v>49</v>
+    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="26">
         <v>317229</v>
@@ -948,12 +944,12 @@
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:13" ht="12" customHeight="1">
-      <c r="A9" s="42" t="s">
-        <v>50</v>
+    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="26">
         <v>240542</v>
@@ -972,12 +968,12 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:13" ht="12" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>51</v>
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="26">
         <v>292255</v>
@@ -996,12 +992,12 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:13" ht="12" customHeight="1">
-      <c r="A11" s="42" t="s">
-        <v>52</v>
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" s="26">
         <v>342285</v>
@@ -1020,12 +1016,12 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:13" ht="12" customHeight="1">
-      <c r="A12" s="42" t="s">
-        <v>53</v>
+    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="43" t="s">
+        <v>49</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" s="26">
         <v>320204</v>
@@ -1044,12 +1040,12 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:13" ht="12" customHeight="1">
-      <c r="A13" s="42" t="s">
-        <v>54</v>
+    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="43" t="s">
+        <v>50</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" s="26">
         <v>273188</v>
@@ -1068,12 +1064,12 @@
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" ht="12" customHeight="1">
-      <c r="A14" s="42" t="s">
-        <v>55</v>
+    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="43" t="s">
+        <v>51</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" s="26">
         <v>274853</v>
@@ -1092,12 +1088,12 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:13" ht="12" customHeight="1">
-      <c r="A15" s="42" t="s">
-        <v>56</v>
+    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" s="26">
         <v>293139</v>
@@ -1116,12 +1112,12 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:13" ht="12" customHeight="1">
-      <c r="A16" s="42" t="s">
-        <v>57</v>
+    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="43" t="s">
+        <v>53</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="26">
         <v>260576</v>
@@ -1140,17 +1136,18 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="2:13" ht="12" customHeight="1">
+    <row r="17" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="38">
+        <v>2</v>
+      </c>
+      <c r="C17" s="37">
         <v>3677472</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="38">
         <v>0.4</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="39">
         <v>4127</v>
       </c>
       <c r="G17" s="9"/>
@@ -1161,33 +1158,35 @@
       <c r="L17" s="15"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="2:13" ht="12" customHeight="1">
+    <row r="18" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="44"/>
       <c r="B18" s="23"/>
       <c r="C18" s="31"/>
       <c r="D18" s="25"/>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="2:13" ht="12" customHeight="1">
+    <row r="19" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="44"/>
       <c r="B19" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="12" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="12" customHeight="1"/>
-    <row r="22" spans="2:13">
-      <c r="B22" s="41"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B22" s="40"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
     </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="41"/>
-    </row>
-    <row r="24" spans="2:13" ht="13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B23" s="40"/>
+    </row>
+    <row r="24" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
     </row>
   </sheetData>
@@ -1208,11 +1207,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="24.6640625" style="6" customWidth="1"/>
@@ -1226,44 +1225,44 @@
     <col min="10" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1">
-      <c r="B2" s="44" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="42" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="B3" s="44"/>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="42"/>
       <c r="C3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="22" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>5</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="12" customHeight="1">
+    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="23"/>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
@@ -1272,12 +1271,12 @@
       <c r="H4" s="7"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="12" customHeight="1">
-      <c r="A5" s="43">
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="41">
         <v>12051000</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="26">
         <v>72461</v>
@@ -1296,12 +1295,12 @@
       <c r="L5" s="16"/>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="1:13" ht="12" customHeight="1">
-      <c r="A6" s="43">
+    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="41">
         <v>12052000</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="26">
         <v>98359</v>
@@ -1320,12 +1319,12 @@
       <c r="L6" s="16"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" ht="12" customHeight="1">
-      <c r="A7" s="43">
+    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="41">
         <v>12053000</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="26">
         <v>56679</v>
@@ -1344,12 +1343,12 @@
       <c r="L7" s="16"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" ht="12" customHeight="1">
-      <c r="A8" s="43">
+    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="41">
         <v>12054000</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="26">
         <v>183154</v>
@@ -1368,12 +1367,12 @@
       <c r="L8" s="16"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:13" ht="12" customHeight="1">
-      <c r="A9" s="43">
+    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41">
         <v>12060000</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="26">
         <v>188835</v>
@@ -1392,12 +1391,12 @@
       <c r="L9" s="16"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:13" ht="12" customHeight="1">
-      <c r="A10" s="43">
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="41">
         <v>12061000</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="26">
         <v>175834</v>
@@ -1416,12 +1415,12 @@
       <c r="L10" s="16"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:13" ht="12" customHeight="1">
-      <c r="A11" s="43">
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="41">
         <v>12062000</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="26">
         <v>100317</v>
@@ -1440,12 +1439,12 @@
       <c r="L11" s="16"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:13" ht="12" customHeight="1">
-      <c r="A12" s="43">
+    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="41">
         <v>12063000</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" s="26">
         <v>165906</v>
@@ -1464,12 +1463,12 @@
       <c r="L12" s="16"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:13" ht="12" customHeight="1">
-      <c r="A13" s="43">
+    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="41">
         <v>12064000</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C13" s="26">
         <v>197965</v>
@@ -1488,12 +1487,12 @@
       <c r="L13" s="16"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" ht="12" customHeight="1">
-      <c r="A14" s="43">
+    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="41">
         <v>12065000</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="26">
         <v>215795</v>
@@ -1512,12 +1511,12 @@
       <c r="L14" s="16"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:13" ht="12" customHeight="1">
-      <c r="A15" s="43">
+    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="41">
         <v>12066000</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" s="26">
         <v>107558</v>
@@ -1536,12 +1535,12 @@
       <c r="L15" s="16"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:13" ht="12" customHeight="1">
-      <c r="A16" s="43">
+    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="41">
         <v>12067000</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="26">
         <v>179245</v>
@@ -1560,12 +1559,12 @@
       <c r="L16" s="16"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:13" ht="12" customHeight="1">
-      <c r="A17" s="43">
+    <row r="17" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="41">
         <v>12068000</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" s="26">
         <v>98829</v>
@@ -1584,12 +1583,12 @@
       <c r="L17" s="16"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:13" ht="12" customHeight="1">
-      <c r="A18" s="43">
+    <row r="18" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="41">
         <v>12069000</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18" s="26">
         <v>219521</v>
@@ -1608,12 +1607,12 @@
       <c r="L18" s="16"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:13" ht="12" customHeight="1">
-      <c r="A19" s="43">
+    <row r="19" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="41">
         <v>12070000</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="26">
         <v>75574</v>
@@ -1632,12 +1631,12 @@
       <c r="L19" s="16"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="1:13" ht="12" customHeight="1">
-      <c r="A20" s="43">
+    <row r="20" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="41">
         <v>12071000</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20" s="26">
         <v>111955</v>
@@ -1656,12 +1655,12 @@
       <c r="L20" s="16"/>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" spans="1:13" ht="12" customHeight="1">
-      <c r="A21" s="43">
+    <row r="21" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="41">
         <v>12072000</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="26">
         <v>172545</v>
@@ -1680,12 +1679,12 @@
       <c r="L21" s="16"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="1:13" ht="12" customHeight="1">
-      <c r="A22" s="43">
+    <row r="22" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="41">
         <v>12073000</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" s="26">
         <v>117336</v>
@@ -1704,17 +1703,17 @@
       <c r="L22" s="16"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:13" ht="12" customHeight="1">
+    <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="38">
+        <v>4</v>
+      </c>
+      <c r="C23" s="37">
         <v>2537868</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="38">
         <v>0.3</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="39">
         <v>86</v>
       </c>
       <c r="G23" s="10"/>
@@ -1725,25 +1724,25 @@
       <c r="L23" s="36"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="1:13" ht="12" customHeight="1">
+    <row r="24" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="17"/>
     </row>
-    <row r="25" spans="1:13" ht="12" customHeight="1">
+    <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="12" customHeight="1"/>
-    <row r="27" spans="1:13">
-      <c r="B27" s="41"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B27" s="40"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
     </row>
-    <row r="28" spans="1:13">
-      <c r="B28" s="41"/>
-    </row>
-    <row r="29" spans="1:13" ht="13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B28" s="40"/>
+    </row>
+    <row r="29" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
     </row>
   </sheetData>
